--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\FrontendWorkSpace\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A1D12E-B551-423A-B4F7-F3F77016C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB256F-C470-4248-A110-2E87872CAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4192" yWindow="413" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +62,36 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Hard</t>
+    <t>1. 两数之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接循坏是O(n²); 利用Map查找是O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)/O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>929. 独特的电子邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、字符串、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(L)/O(L)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是掌握字符串处理的两种方式：API和正则表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -75,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +129,6 @@
       <color theme="1"/>
       <name val="Wide Latin"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +235,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -222,6 +247,43 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -243,51 +305,15 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -423,6 +449,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -432,13 +462,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>338138</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>80964</xdr:rowOff>
+          <xdr:rowOff>80963</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>314326</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -492,6 +522,68 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>338138</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>80963</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="214312" cy="233362"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A3B416-E8ED-484D-B582-1AE50087D767}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -502,9 +594,9 @@
     <tableColumn id="2" xr3:uid="{D42BED19-0C92-48ED-A4F6-25CAE7A24161}" name="难度" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{6633897F-CE15-4B34-946F-9BABB36DF7D9}" name="Tag" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{F9B0E77F-934B-4558-9FB4-03744ECB5EB8}" name="Time/Space" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{305E9533-4483-43AF-A3DB-85FD2DE5ACFB}" name="Last Review Time" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4A39136A-59B4-4833-9F8A-D69607A8621E}" name="掌握程度" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C4AA40D5-7799-4880-B007-4B44FB224C97}" name="完全掌握" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{305E9533-4483-43AF-A3DB-85FD2DE5ACFB}" name="Last Review Time" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4A39136A-59B4-4833-9F8A-D69607A8621E}" name="掌握程度" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C4AA40D5-7799-4880-B007-4B44FB224C97}" name="完全掌握" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{6D2D5128-17DF-4BA2-AB88-369BAF2C825A}" name="Note" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -775,22 +867,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.9296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.53125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.46484375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.86328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.06640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
@@ -821,23 +913,57 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>44716.647916666669</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44718.421527777777</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9"/>
@@ -847,7 +973,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
       <c r="H5" s="9"/>
@@ -857,10 +983,37 @@
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
       <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -914,11 +1067,33 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId5" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>338138</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>80963</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\FrontendWorkSpace\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB256F-C470-4248-A110-2E87872CAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F3E6E-96AF-4A91-B3C9-FDFDCBFCC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4192" yWindow="413" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,25 @@
   </si>
   <si>
     <t>主要是掌握字符串处理的两种方式：API和正则表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>875.爱吃香蕉的珂珂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>数组、二分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlogN)/O(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清题意，对于K范围单调性要足够敏感，想到二分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +259,15 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -247,29 +275,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -314,6 +319,29 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -450,6 +478,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -524,14 +556,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>338138</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>80963</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="214312" cy="233362"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -540,7 +577,69 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A3B416-E8ED-484D-B582-1AE50087D767}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>338138</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>80963</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="214312" cy="233362"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0D843E-8C59-43DA-8980-15ECEC74E1F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -594,10 +693,10 @@
     <tableColumn id="2" xr3:uid="{D42BED19-0C92-48ED-A4F6-25CAE7A24161}" name="难度" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{6633897F-CE15-4B34-946F-9BABB36DF7D9}" name="Tag" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{F9B0E77F-934B-4558-9FB4-03744ECB5EB8}" name="Time/Space" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{305E9533-4483-43AF-A3DB-85FD2DE5ACFB}" name="Last Review Time" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{4A39136A-59B4-4833-9F8A-D69607A8621E}" name="掌握程度" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C4AA40D5-7799-4880-B007-4B44FB224C97}" name="完全掌握" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{6D2D5128-17DF-4BA2-AB88-369BAF2C825A}" name="Note" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{305E9533-4483-43AF-A3DB-85FD2DE5ACFB}" name="Last Review Time" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4A39136A-59B4-4833-9F8A-D69607A8621E}" name="掌握程度" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C4AA40D5-7799-4880-B007-4B44FB224C97}" name="完全掌握" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6D2D5128-17DF-4BA2-AB88-369BAF2C825A}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -869,8 +968,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -959,14 +1058,27 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15">
+        <v>44719.689583333333</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
@@ -1089,11 +1201,33 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>338138</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>80963</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>